--- a/public/DataSiswa/Book1.xlsx
+++ b/public/DataSiswa/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039C6DC4-277F-4118-B209-EEAA29FC0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B016E19-3C01-40E9-BDB9-2450A7FAFAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C19A474A-96DA-4D4C-AABF-5FA07697D265}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3ADBEE6D-81B9-436A-9401-D80A086F6954}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,39 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>deo</t>
+    <t>0063599382</t>
   </si>
   <si>
-    <t>XII KI</t>
+    <t>Abdur Rohim</t>
   </si>
   <si>
-    <t>123123@gmail.com</t>
+    <t>X BFI</t>
+  </si>
+  <si>
+    <t>0063599382@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +70,11 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,18 +92,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{23AF1017-BD99-4608-9F50-E197FFD54302}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,83 +433,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F33AC8-2223-413F-8719-5AB0CDB07F61}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CDDBE9-C895-4878-B6D1-E75050AB0A4A}">
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>8236623</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>123123</v>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E16" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{8F2E7338-D30D-4C38-A973-B23D2B13AD76}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{9A69D3AD-80EF-4763-BD0C-953DC70E8F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
